--- a/Closed Sales (2).xlsx
+++ b/Closed Sales (2).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
   <si>
     <t>DateSelector</t>
   </si>
@@ -49,22 +49,46 @@
     <t>MSI</t>
   </si>
   <si>
+    <t>Single Family Residence</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
     <t>Condo/Townhouse</t>
   </si>
   <si>
     <t>849</t>
   </si>
   <si>
-    <t>Single Family Residence</t>
-  </si>
-  <si>
-    <t>1248</t>
+    <t>Multi-Family</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1329</t>
   </si>
   <si>
     <t>883</t>
   </si>
   <si>
-    <t>1329</t>
+    <t>677</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>1859</t>
@@ -73,57 +97,114 @@
     <t>1292</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
     <t>2055</t>
   </si>
   <si>
-    <t>1337</t>
+    <t>647</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>664</t>
   </si>
   <si>
     <t>1309</t>
   </si>
   <si>
-    <t>2048</t>
+    <t>58</t>
   </si>
   <si>
     <t>1820</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
     <t>1120</t>
   </si>
   <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
     <t>1612</t>
   </si>
   <si>
-    <t>909</t>
+    <t>957</t>
   </si>
   <si>
     <t>1678</t>
   </si>
   <si>
-    <t>957</t>
+    <t>587</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>480</t>
   </si>
   <si>
     <t>1299</t>
   </si>
   <si>
-    <t>797</t>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1450</t>
   </si>
   <si>
     <t>769</t>
   </si>
   <si>
-    <t>1450</t>
+    <t>465</t>
   </si>
   <si>
     <t>807</t>
   </si>
   <si>
+    <t>477</t>
+  </si>
+  <si>
     <t>1369</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>1334</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>1099</t>
   </si>
   <si>
@@ -136,34 +217,64 @@
     <t>821</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
     <t>1839</t>
   </si>
   <si>
-    <t>1180</t>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>614</t>
   </si>
   <si>
     <t>1512</t>
   </si>
   <si>
-    <t>2029</t>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>539</t>
   </si>
   <si>
     <t>2224</t>
   </si>
   <si>
-    <t>1397</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>1047</t>
   </si>
   <si>
     <t>1814</t>
   </si>
   <si>
-    <t>1047</t>
+    <t>1774</t>
   </si>
   <si>
     <t>1008</t>
   </si>
   <si>
-    <t>1774</t>
+    <t>461</t>
+  </si>
+  <si>
+    <t>505</t>
   </si>
   <si>
     <t>1722</t>
@@ -172,24 +283,45 @@
     <t>914</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>1534</t>
   </si>
   <si>
-    <t>816</t>
-  </si>
-  <si>
     <t>1575</t>
   </si>
   <si>
+    <t>506</t>
+  </si>
+  <si>
     <t>892</t>
   </si>
   <si>
     <t>1457</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>839</t>
   </si>
   <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
     <t>1122</t>
   </si>
   <si>
@@ -202,10 +334,28 @@
     <t>1361</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>1536</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
     <t>1051</t>
   </si>
   <si>
-    <t>1536</t>
+    <t>701</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>1389</t>
@@ -214,9 +364,15 @@
     <t>2151</t>
   </si>
   <si>
+    <t>353</t>
+  </si>
+  <si>
     <t>1655</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>999</t>
   </si>
   <si>
@@ -226,58 +382,109 @@
     <t>661</t>
   </si>
   <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>1882</t>
   </si>
   <si>
     <t>935</t>
   </si>
   <si>
+    <t>982</t>
+  </si>
+  <si>
     <t>2303</t>
   </si>
   <si>
     <t>1164</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>2143</t>
   </si>
   <si>
     <t>1148</t>
   </si>
   <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
     <t>2189</t>
   </si>
   <si>
-    <t>1203</t>
-  </si>
-  <si>
     <t>2344</t>
   </si>
   <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
     <t>2104</t>
   </si>
   <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>2499</t>
   </si>
   <si>
-    <t>1613</t>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1132</t>
   </si>
   <si>
     <t>1300</t>
   </si>
   <si>
-    <t>1860</t>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>1590</t>
   </si>
   <si>
     <t>1999</t>
   </si>
   <si>
-    <t>1586</t>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>2089</t>
   </si>
   <si>
     <t>2880</t>
   </si>
   <si>
-    <t>2340</t>
+    <t>105</t>
   </si>
   <si>
     <t>2936</t>
@@ -286,40 +493,82 @@
     <t>2363</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>1880</t>
   </si>
   <si>
     <t>2606</t>
   </si>
   <si>
+    <t>1589</t>
+  </si>
+  <si>
     <t>1784</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>2679</t>
   </si>
   <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>2226</t>
   </si>
   <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>1108</t>
   </si>
   <si>
     <t>2008</t>
   </si>
   <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
     <t>1937</t>
   </si>
   <si>
-    <t>1021</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1976</t>
   </si>
   <si>
     <t>1073</t>
   </si>
   <si>
-    <t>1976</t>
+    <t>1098</t>
   </si>
   <si>
     <t>1290</t>
@@ -328,34 +577,58 @@
     <t>2115</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>1617</t>
   </si>
   <si>
     <t>965</t>
   </si>
   <si>
+    <t>1186</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
     <t>1781</t>
   </si>
   <si>
-    <t>948</t>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>1831</t>
   </si>
   <si>
     <t>2425</t>
   </si>
   <si>
-    <t>1419</t>
+    <t>1526</t>
   </si>
   <si>
     <t>2352</t>
   </si>
   <si>
-    <t>1526</t>
+    <t>1648</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>2323</t>
   </si>
   <si>
     <t>1485</t>
   </si>
   <si>
-    <t>2323</t>
+    <t>1278</t>
   </si>
   <si>
     <t>2071</t>
@@ -367,10 +640,22 @@
     <t>846</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
     <t>1632</t>
   </si>
   <si>
-    <t>831</t>
+    <t>750</t>
+  </si>
+  <si>
+    <t>629</t>
   </si>
   <si>
     <t>634</t>
@@ -379,13 +664,22 @@
     <t>702</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
     <t>1131</t>
   </si>
   <si>
+    <t>1213</t>
+  </si>
+  <si>
     <t>672</t>
   </si>
   <si>
-    <t>1213</t>
+    <t>483</t>
   </si>
   <si>
     <t>1430</t>
@@ -394,10 +688,19 @@
     <t>723</t>
   </si>
   <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
     <t>1232</t>
   </si>
   <si>
-    <t>635</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>698</t>
   </si>
   <si>
     <t>790</t>
@@ -409,64 +712,112 @@
     <t>1219</t>
   </si>
   <si>
+    <t>992</t>
+  </si>
+  <si>
     <t>2112</t>
   </si>
   <si>
+    <t>901</t>
+  </si>
+  <si>
     <t>1888</t>
   </si>
   <si>
     <t>2098</t>
   </si>
   <si>
+    <t>1043</t>
+  </si>
+  <si>
     <t>1195</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>1908</t>
   </si>
   <si>
+    <t>942</t>
+  </si>
+  <si>
     <t>933</t>
   </si>
   <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
     <t>1538</t>
   </si>
   <si>
-    <t>662</t>
-  </si>
-  <si>
     <t>827</t>
   </si>
   <si>
+    <t>1016</t>
+  </si>
+  <si>
     <t>712</t>
   </si>
   <si>
+    <t>925</t>
+  </si>
+  <si>
     <t>666</t>
   </si>
   <si>
     <t>1424</t>
   </si>
   <si>
+    <t>771</t>
+  </si>
+  <si>
     <t>660</t>
   </si>
   <si>
     <t>1258</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>1382</t>
   </si>
   <si>
+    <t>748</t>
+  </si>
+  <si>
     <t>624</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>595</t>
   </si>
   <si>
+    <t>732</t>
+  </si>
+  <si>
     <t>1129</t>
   </si>
   <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
     <t>1411</t>
   </si>
   <si>
-    <t>799</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>988</t>
   </si>
   <si>
     <t>2025</t>
@@ -475,6 +826,9 @@
     <t>1024</t>
   </si>
   <si>
+    <t>873</t>
+  </si>
+  <si>
     <t>1187</t>
   </si>
   <si>
@@ -484,79 +838,124 @@
     <t>1023</t>
   </si>
   <si>
+    <t>953</t>
+  </si>
+  <si>
     <t>2066</t>
   </si>
   <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
     <t>763</t>
   </si>
   <si>
-    <t>1708</t>
+    <t>700</t>
   </si>
   <si>
     <t>638</t>
   </si>
   <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>619</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
     <t>543</t>
   </si>
   <si>
     <t>1336</t>
   </si>
   <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>1239</t>
   </si>
   <si>
-    <t>520</t>
+    <t>606</t>
   </si>
   <si>
     <t>436</t>
   </si>
   <si>
+    <t>486</t>
+  </si>
+  <si>
     <t>1188</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>1378</t>
   </si>
   <si>
+    <t>640</t>
+  </si>
+  <si>
     <t>642</t>
   </si>
   <si>
     <t>566</t>
   </si>
   <si>
+    <t>550</t>
+  </si>
+  <si>
     <t>1353</t>
   </si>
   <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
     <t>1899</t>
   </si>
   <si>
-    <t>966</t>
-  </si>
-  <si>
     <t>1985</t>
   </si>
   <si>
     <t>1046</t>
   </si>
   <si>
+    <t>591</t>
+  </si>
+  <si>
     <t>1963</t>
   </si>
   <si>
     <t>894</t>
   </si>
   <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
     <t>1896</t>
   </si>
   <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>639</t>
+    <t>469</t>
   </si>
   <si>
     <t>1651</t>
@@ -565,22 +964,34 @@
     <t>1579</t>
   </si>
   <si>
-    <t>645</t>
+    <t>416</t>
+  </si>
+  <si>
+    <t>1529</t>
   </si>
   <si>
     <t>626</t>
   </si>
   <si>
-    <t>1529</t>
+    <t>410</t>
+  </si>
+  <si>
+    <t>668</t>
   </si>
   <si>
     <t>1537</t>
   </si>
   <si>
-    <t>668</t>
+    <t>398</t>
+  </si>
+  <si>
+    <t>402</t>
   </si>
   <si>
     <t>554</t>
+  </si>
+  <si>
+    <t>395</t>
   </si>
   <si>
     <t>811</t>
@@ -935,7 +1346,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -1028,10 +1439,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -1039,7 +1450,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1047,10 +1458,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -1058,7 +1469,7 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1066,7 +1477,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1077,7 +1488,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1085,10 +1496,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -1096,7 +1507,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1104,10 +1515,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>43220</v>
+        <v>43159</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1115,7 +1526,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1123,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>43220</v>
+        <v>43159</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1134,7 +1545,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1142,10 +1553,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1153,7 +1564,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1161,10 +1572,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1172,7 +1583,7 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1180,10 +1591,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1191,7 +1602,7 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1199,10 +1610,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1210,7 +1621,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1218,10 +1629,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1229,7 +1640,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1237,10 +1648,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1248,7 +1659,7 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1256,10 +1667,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1267,7 +1678,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -1275,10 +1686,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1286,7 +1697,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -1294,10 +1705,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>43373</v>
+        <v>43251</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1305,7 +1716,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1313,10 +1724,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>43373</v>
+        <v>43251</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1324,7 +1735,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -1332,10 +1743,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>43404</v>
+        <v>43251</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1343,7 +1754,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -1351,10 +1762,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>43404</v>
+        <v>43251</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1362,7 +1773,7 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -1370,7 +1781,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>43434</v>
+        <v>43281</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1381,7 +1792,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -1389,10 +1800,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>43434</v>
+        <v>43281</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1400,7 +1811,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -1408,10 +1819,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1419,7 +1830,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -1427,10 +1838,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -1438,7 +1849,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -1446,10 +1857,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1457,7 +1868,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -1465,10 +1876,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1476,7 +1887,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -1484,7 +1895,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>43524</v>
+        <v>43312</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -1495,7 +1906,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -1503,7 +1914,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>43524</v>
+        <v>43312</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1514,7 +1925,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -1522,10 +1933,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>43555</v>
+        <v>43343</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1533,7 +1944,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -1541,7 +1952,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>43555</v>
+        <v>43343</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -1552,7 +1963,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1560,10 +1971,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1571,7 +1982,7 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -1579,7 +1990,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1590,7 +2001,7 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -1598,10 +2009,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>43616</v>
+        <v>43373</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1609,7 +2020,7 @@
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -1617,10 +2028,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>43616</v>
+        <v>43373</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1628,7 +2039,7 @@
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -1636,7 +2047,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -1647,7 +2058,7 @@
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -1655,7 +2066,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -1666,7 +2077,7 @@
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -1674,10 +2085,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1685,7 +2096,7 @@
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
@@ -1693,10 +2104,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1704,7 +2115,7 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -1712,10 +2123,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1723,7 +2134,7 @@
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -1731,10 +2142,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1742,7 +2153,7 @@
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -1750,10 +2161,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1761,7 +2172,7 @@
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -1769,10 +2180,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1780,7 +2191,7 @@
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
@@ -1788,10 +2199,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1799,7 +2210,7 @@
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -1807,10 +2218,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1818,7 +2229,7 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -1826,10 +2237,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>43799</v>
+        <v>43465</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1837,7 +2248,7 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -1845,10 +2256,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>43799</v>
+        <v>43465</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -1856,7 +2267,7 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -1864,10 +2275,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -1875,7 +2286,7 @@
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -1883,7 +2294,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -1894,7 +2305,7 @@
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -1902,10 +2313,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -1913,7 +2324,7 @@
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -1921,10 +2332,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -1932,7 +2343,7 @@
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -1940,7 +2351,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>43890</v>
+        <v>43496</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -1951,7 +2362,7 @@
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -1959,10 +2370,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>43890</v>
+        <v>43496</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -1970,7 +2381,7 @@
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -1978,7 +2389,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>43921</v>
+        <v>43524</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -1989,7 +2400,7 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -1997,10 +2408,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>43921</v>
+        <v>43524</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -2008,7 +2419,7 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -2016,10 +2427,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -2027,7 +2438,7 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -2035,10 +2446,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -2046,7 +2457,7 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -2054,10 +2465,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -2065,7 +2476,7 @@
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -2073,10 +2484,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -2084,7 +2495,7 @@
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I59"/>
       <c r="J59"/>
@@ -2092,7 +2503,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -2103,7 +2514,7 @@
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -2111,7 +2522,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -2122,7 +2533,7 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
@@ -2130,10 +2541,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>44043</v>
+        <v>43585</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -2141,7 +2552,7 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -2149,10 +2560,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>44043</v>
+        <v>43585</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -2160,7 +2571,7 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -2168,10 +2579,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>44074</v>
+        <v>43585</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -2179,7 +2590,7 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -2187,10 +2598,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>44074</v>
+        <v>43585</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -2198,7 +2609,7 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -2206,10 +2617,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>44104</v>
+        <v>43616</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -2225,10 +2636,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>44104</v>
+        <v>43616</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -2244,10 +2655,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>44135</v>
+        <v>43616</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -2255,7 +2666,7 @@
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
@@ -2263,10 +2674,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>44135</v>
+        <v>43616</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -2282,10 +2693,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>44165</v>
+        <v>43646</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -2293,7 +2704,7 @@
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
@@ -2301,7 +2712,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>44165</v>
+        <v>43646</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -2312,7 +2723,7 @@
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
@@ -2320,10 +2731,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>44196</v>
+        <v>43646</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -2331,7 +2742,7 @@
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
@@ -2339,7 +2750,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>44196</v>
+        <v>43646</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -2350,7 +2761,7 @@
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
@@ -2358,7 +2769,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>44227</v>
+        <v>43677</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -2369,7 +2780,7 @@
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -2377,10 +2788,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>44227</v>
+        <v>43677</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -2388,7 +2799,7 @@
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -2396,10 +2807,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>44255</v>
+        <v>43677</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -2415,10 +2826,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>44255</v>
+        <v>43677</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -2434,7 +2845,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>44286</v>
+        <v>43708</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -2453,7 +2864,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>44286</v>
+        <v>43708</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -2472,10 +2883,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>44316</v>
+        <v>43708</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -2491,10 +2902,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>44316</v>
+        <v>43708</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -2510,10 +2921,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>44347</v>
+        <v>43738</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -2529,10 +2940,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>44347</v>
+        <v>43738</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -2548,10 +2959,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>44377</v>
+        <v>43738</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -2567,10 +2978,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>44377</v>
+        <v>43738</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -2586,10 +2997,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>44408</v>
+        <v>43769</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -2605,10 +3016,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>44408</v>
+        <v>43769</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -2616,7 +3027,7 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I87"/>
       <c r="J87"/>
@@ -2624,10 +3035,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>44439</v>
+        <v>43769</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -2635,7 +3046,7 @@
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I88"/>
       <c r="J88"/>
@@ -2643,10 +3054,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>44439</v>
+        <v>43769</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -2654,7 +3065,7 @@
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="I89"/>
       <c r="J89"/>
@@ -2662,7 +3073,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>44469</v>
+        <v>43799</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -2673,7 +3084,7 @@
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I90"/>
       <c r="J90"/>
@@ -2681,10 +3092,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>44469</v>
+        <v>43799</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -2692,7 +3103,7 @@
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I91"/>
       <c r="J91"/>
@@ -2700,10 +3111,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>44500</v>
+        <v>43799</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -2711,7 +3122,7 @@
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I92"/>
       <c r="J92"/>
@@ -2719,10 +3130,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>44500</v>
+        <v>43799</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2730,7 +3141,7 @@
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -2738,10 +3149,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>44530</v>
+        <v>43830</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
@@ -2749,7 +3160,7 @@
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
@@ -2757,10 +3168,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>44530</v>
+        <v>43830</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
@@ -2768,7 +3179,7 @@
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I95"/>
       <c r="J95"/>
@@ -2776,7 +3187,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -2787,7 +3198,7 @@
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
@@ -2795,10 +3206,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
@@ -2806,7 +3217,7 @@
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="I97"/>
       <c r="J97"/>
@@ -2814,10 +3225,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>44592</v>
+        <v>43861</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -2833,7 +3244,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>44592</v>
+        <v>43861</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -2852,10 +3263,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>44620</v>
+        <v>43861</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
@@ -2871,10 +3282,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>44620</v>
+        <v>43861</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
@@ -2890,10 +3301,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>44651</v>
+        <v>43890</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102"/>
       <c r="D102"/>
@@ -2909,10 +3320,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>44651</v>
+        <v>43890</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
@@ -2928,7 +3339,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>44681</v>
+        <v>43890</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -2947,10 +3358,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>44681</v>
+        <v>43890</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
@@ -2966,10 +3377,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>44712</v>
+        <v>43921</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -2985,10 +3396,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>44712</v>
+        <v>43921</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -3004,10 +3415,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>44742</v>
+        <v>43921</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
@@ -3023,7 +3434,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>44742</v>
+        <v>43921</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -3042,7 +3453,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>44773</v>
+        <v>43951</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
@@ -3053,7 +3464,7 @@
       <c r="F110"/>
       <c r="G110"/>
       <c r="H110" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="I110"/>
       <c r="J110"/>
@@ -3061,7 +3472,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>44773</v>
+        <v>43951</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -3072,7 +3483,7 @@
       <c r="F111"/>
       <c r="G111"/>
       <c r="H111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I111"/>
       <c r="J111"/>
@@ -3080,10 +3491,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>44804</v>
+        <v>43951</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
@@ -3091,7 +3502,7 @@
       <c r="F112"/>
       <c r="G112"/>
       <c r="H112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I112"/>
       <c r="J112"/>
@@ -3099,10 +3510,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>44804</v>
+        <v>43951</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -3110,7 +3521,7 @@
       <c r="F113"/>
       <c r="G113"/>
       <c r="H113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I113"/>
       <c r="J113"/>
@@ -3118,7 +3529,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>44834</v>
+        <v>43982</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -3129,7 +3540,7 @@
       <c r="F114"/>
       <c r="G114"/>
       <c r="H114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I114"/>
       <c r="J114"/>
@@ -3137,10 +3548,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>44834</v>
+        <v>43982</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
@@ -3148,7 +3559,7 @@
       <c r="F115"/>
       <c r="G115"/>
       <c r="H115" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="I115"/>
       <c r="J115"/>
@@ -3156,10 +3567,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>44865</v>
+        <v>43982</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
@@ -3167,7 +3578,7 @@
       <c r="F116"/>
       <c r="G116"/>
       <c r="H116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I116"/>
       <c r="J116"/>
@@ -3175,10 +3586,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>44865</v>
+        <v>43982</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C117"/>
       <c r="D117"/>
@@ -3186,7 +3597,7 @@
       <c r="F117"/>
       <c r="G117"/>
       <c r="H117" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I117"/>
       <c r="J117"/>
@@ -3194,10 +3605,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>44895</v>
+        <v>44012</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C118"/>
       <c r="D118"/>
@@ -3205,7 +3616,7 @@
       <c r="F118"/>
       <c r="G118"/>
       <c r="H118" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I118"/>
       <c r="J118"/>
@@ -3213,10 +3624,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>44895</v>
+        <v>44012</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
@@ -3224,7 +3635,7 @@
       <c r="F119"/>
       <c r="G119"/>
       <c r="H119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I119"/>
       <c r="J119"/>
@@ -3232,10 +3643,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120"/>
       <c r="D120"/>
@@ -3243,7 +3654,7 @@
       <c r="F120"/>
       <c r="G120"/>
       <c r="H120" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I120"/>
       <c r="J120"/>
@@ -3251,10 +3662,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C121"/>
       <c r="D121"/>
@@ -3262,7 +3673,7 @@
       <c r="F121"/>
       <c r="G121"/>
       <c r="H121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I121"/>
       <c r="J121"/>
@@ -3270,10 +3681,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>44957</v>
+        <v>44043</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -3281,7 +3692,7 @@
       <c r="F122"/>
       <c r="G122"/>
       <c r="H122" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I122"/>
       <c r="J122"/>
@@ -3289,10 +3700,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>44957</v>
+        <v>44043</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -3300,7 +3711,7 @@
       <c r="F123"/>
       <c r="G123"/>
       <c r="H123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I123"/>
       <c r="J123"/>
@@ -3308,7 +3719,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>44985</v>
+        <v>44043</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -3319,7 +3730,7 @@
       <c r="F124"/>
       <c r="G124"/>
       <c r="H124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I124"/>
       <c r="J124"/>
@@ -3327,10 +3738,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>44985</v>
+        <v>44043</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -3338,7 +3749,7 @@
       <c r="F125"/>
       <c r="G125"/>
       <c r="H125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I125"/>
       <c r="J125"/>
@@ -3346,10 +3757,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>45016</v>
+        <v>44074</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -3357,7 +3768,7 @@
       <c r="F126"/>
       <c r="G126"/>
       <c r="H126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I126"/>
       <c r="J126"/>
@@ -3365,10 +3776,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>45016</v>
+        <v>44074</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
@@ -3376,7 +3787,7 @@
       <c r="F127"/>
       <c r="G127"/>
       <c r="H127" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I127"/>
       <c r="J127"/>
@@ -3384,10 +3795,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>45046</v>
+        <v>44074</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -3395,7 +3806,7 @@
       <c r="F128"/>
       <c r="G128"/>
       <c r="H128" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="I128"/>
       <c r="J128"/>
@@ -3403,7 +3814,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>45046</v>
+        <v>44074</v>
       </c>
       <c r="B129" t="s">
         <v>13</v>
@@ -3414,7 +3825,7 @@
       <c r="F129"/>
       <c r="G129"/>
       <c r="H129" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I129"/>
       <c r="J129"/>
@@ -3422,7 +3833,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>45077</v>
+        <v>44104</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
@@ -3433,7 +3844,7 @@
       <c r="F130"/>
       <c r="G130"/>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I130"/>
       <c r="J130"/>
@@ -3441,10 +3852,10 @@
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>45077</v>
+        <v>44104</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -3452,7 +3863,7 @@
       <c r="F131"/>
       <c r="G131"/>
       <c r="H131" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I131"/>
       <c r="J131"/>
@@ -3460,10 +3871,10 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>45107</v>
+        <v>44104</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -3471,7 +3882,7 @@
       <c r="F132"/>
       <c r="G132"/>
       <c r="H132" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="I132"/>
       <c r="J132"/>
@@ -3479,7 +3890,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>45107</v>
+        <v>44104</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -3490,7 +3901,7 @@
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I133"/>
       <c r="J133"/>
@@ -3498,10 +3909,10 @@
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>45138</v>
+        <v>44135</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -3509,7 +3920,7 @@
       <c r="F134"/>
       <c r="G134"/>
       <c r="H134" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="I134"/>
       <c r="J134"/>
@@ -3517,7 +3928,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>45138</v>
+        <v>44135</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -3536,10 +3947,10 @@
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>45169</v>
+        <v>44135</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -3555,10 +3966,10 @@
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>45169</v>
+        <v>44135</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -3566,7 +3977,7 @@
       <c r="F137"/>
       <c r="G137"/>
       <c r="H137" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I137"/>
       <c r="J137"/>
@@ -3574,10 +3985,10 @@
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>45199</v>
+        <v>44165</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
@@ -3585,7 +3996,7 @@
       <c r="F138"/>
       <c r="G138"/>
       <c r="H138" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I138"/>
       <c r="J138"/>
@@ -3593,10 +4004,10 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>45199</v>
+        <v>44165</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
@@ -3604,7 +4015,7 @@
       <c r="F139"/>
       <c r="G139"/>
       <c r="H139" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="I139"/>
       <c r="J139"/>
@@ -3612,7 +4023,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>45230</v>
+        <v>44165</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -3623,7 +4034,7 @@
       <c r="F140"/>
       <c r="G140"/>
       <c r="H140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I140"/>
       <c r="J140"/>
@@ -3631,10 +4042,10 @@
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>45230</v>
+        <v>44165</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -3642,7 +4053,7 @@
       <c r="F141"/>
       <c r="G141"/>
       <c r="H141" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I141"/>
       <c r="J141"/>
@@ -3650,10 +4061,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>45260</v>
+        <v>44196</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -3669,10 +4080,10 @@
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>45260</v>
+        <v>44196</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
@@ -3688,10 +4099,10 @@
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>45291</v>
+        <v>44196</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
@@ -3707,10 +4118,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>45291</v>
+        <v>44196</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
@@ -3726,7 +4137,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>45322</v>
+        <v>44227</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -3745,7 +4156,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>45322</v>
+        <v>44227</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -3764,10 +4175,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>45351</v>
+        <v>44227</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
@@ -3783,10 +4194,10 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>45351</v>
+        <v>44227</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -3794,7 +4205,7 @@
       <c r="F149"/>
       <c r="G149"/>
       <c r="H149" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="I149"/>
       <c r="J149"/>
@@ -3802,10 +4213,10 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>45382</v>
+        <v>44255</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
@@ -3813,7 +4224,7 @@
       <c r="F150"/>
       <c r="G150"/>
       <c r="H150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I150"/>
       <c r="J150"/>
@@ -3821,10 +4232,10 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>45382</v>
+        <v>44255</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -3832,7 +4243,7 @@
       <c r="F151"/>
       <c r="G151"/>
       <c r="H151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I151"/>
       <c r="J151"/>
@@ -3840,7 +4251,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>45412</v>
+        <v>44255</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -3851,7 +4262,7 @@
       <c r="F152"/>
       <c r="G152"/>
       <c r="H152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I152"/>
       <c r="J152"/>
@@ -3859,10 +4270,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>45412</v>
+        <v>44255</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
@@ -3870,7 +4281,7 @@
       <c r="F153"/>
       <c r="G153"/>
       <c r="H153" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="I153"/>
       <c r="J153"/>
@@ -3878,10 +4289,10 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>45443</v>
+        <v>44286</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
@@ -3889,7 +4300,7 @@
       <c r="F154"/>
       <c r="G154"/>
       <c r="H154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I154"/>
       <c r="J154"/>
@@ -3897,7 +4308,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>45443</v>
+        <v>44286</v>
       </c>
       <c r="B155" t="s">
         <v>13</v>
@@ -3908,7 +4319,7 @@
       <c r="F155"/>
       <c r="G155"/>
       <c r="H155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I155"/>
       <c r="J155"/>
@@ -3916,7 +4327,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>45473</v>
+        <v>44286</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -3927,7 +4338,7 @@
       <c r="F156"/>
       <c r="G156"/>
       <c r="H156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I156"/>
       <c r="J156"/>
@@ -3935,10 +4346,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>45473</v>
+        <v>44286</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
@@ -3946,7 +4357,7 @@
       <c r="F157"/>
       <c r="G157"/>
       <c r="H157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I157"/>
       <c r="J157"/>
@@ -3954,10 +4365,10 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>45504</v>
+        <v>44316</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
@@ -3965,7 +4376,7 @@
       <c r="F158"/>
       <c r="G158"/>
       <c r="H158" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="I158"/>
       <c r="J158"/>
@@ -3973,10 +4384,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>45504</v>
+        <v>44316</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
@@ -3984,7 +4395,7 @@
       <c r="F159"/>
       <c r="G159"/>
       <c r="H159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I159"/>
       <c r="J159"/>
@@ -3992,10 +4403,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>45535</v>
+        <v>44316</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
@@ -4003,7 +4414,7 @@
       <c r="F160"/>
       <c r="G160"/>
       <c r="H160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I160"/>
       <c r="J160"/>
@@ -4011,7 +4422,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>45535</v>
+        <v>44316</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
@@ -4022,7 +4433,7 @@
       <c r="F161"/>
       <c r="G161"/>
       <c r="H161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I161"/>
       <c r="J161"/>
@@ -4030,10 +4441,10 @@
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>45565</v>
+        <v>44347</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
@@ -4041,7 +4452,7 @@
       <c r="F162"/>
       <c r="G162"/>
       <c r="H162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I162"/>
       <c r="J162"/>
@@ -4049,10 +4460,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>45565</v>
+        <v>44347</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -4060,7 +4471,7 @@
       <c r="F163"/>
       <c r="G163"/>
       <c r="H163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I163"/>
       <c r="J163"/>
@@ -4068,10 +4479,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>45596</v>
+        <v>44347</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
@@ -4079,7 +4490,7 @@
       <c r="F164"/>
       <c r="G164"/>
       <c r="H164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I164"/>
       <c r="J164"/>
@@ -4087,10 +4498,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>45596</v>
+        <v>44347</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
@@ -4098,7 +4509,7 @@
       <c r="F165"/>
       <c r="G165"/>
       <c r="H165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I165"/>
       <c r="J165"/>
@@ -4106,10 +4517,10 @@
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>45626</v>
+        <v>44377</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
@@ -4117,7 +4528,7 @@
       <c r="F166"/>
       <c r="G166"/>
       <c r="H166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I166"/>
       <c r="J166"/>
@@ -4125,10 +4536,10 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>45626</v>
+        <v>44377</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
@@ -4136,7 +4547,7 @@
       <c r="F167"/>
       <c r="G167"/>
       <c r="H167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I167"/>
       <c r="J167"/>
@@ -4144,10 +4555,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>45657</v>
+        <v>44377</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168"/>
       <c r="D168"/>
@@ -4155,7 +4566,7 @@
       <c r="F168"/>
       <c r="G168"/>
       <c r="H168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I168"/>
       <c r="J168"/>
@@ -4163,10 +4574,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>45657</v>
+        <v>44377</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C169"/>
       <c r="D169"/>
@@ -4174,7 +4585,7 @@
       <c r="F169"/>
       <c r="G169"/>
       <c r="H169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I169"/>
       <c r="J169"/>
@@ -4182,10 +4593,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>45688</v>
+        <v>44408</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C170"/>
       <c r="D170"/>
@@ -4193,7 +4604,7 @@
       <c r="F170"/>
       <c r="G170"/>
       <c r="H170" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I170"/>
       <c r="J170"/>
@@ -4201,10 +4612,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>45688</v>
+        <v>44408</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C171"/>
       <c r="D171"/>
@@ -4212,7 +4623,7 @@
       <c r="F171"/>
       <c r="G171"/>
       <c r="H171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I171"/>
       <c r="J171"/>
@@ -4220,10 +4631,10 @@
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>45716</v>
+        <v>44408</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C172"/>
       <c r="D172"/>
@@ -4231,7 +4642,7 @@
       <c r="F172"/>
       <c r="G172"/>
       <c r="H172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I172"/>
       <c r="J172"/>
@@ -4239,7 +4650,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>45716</v>
+        <v>44408</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -4250,7 +4661,7 @@
       <c r="F173"/>
       <c r="G173"/>
       <c r="H173" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="I173"/>
       <c r="J173"/>
@@ -4258,7 +4669,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>45747</v>
+        <v>44439</v>
       </c>
       <c r="B174" t="s">
         <v>13</v>
@@ -4277,10 +4688,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>45747</v>
+        <v>44439</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C175"/>
       <c r="D175"/>
@@ -4296,10 +4707,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>45777</v>
+        <v>44439</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C176"/>
       <c r="D176"/>
@@ -4307,7 +4718,7 @@
       <c r="F176"/>
       <c r="G176"/>
       <c r="H176" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="I176"/>
       <c r="J176"/>
@@ -4315,7 +4726,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>45777</v>
+        <v>44439</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -4326,7 +4737,7 @@
       <c r="F177"/>
       <c r="G177"/>
       <c r="H177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I177"/>
       <c r="J177"/>
@@ -4334,10 +4745,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>45808</v>
+        <v>44469</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C178"/>
       <c r="D178"/>
@@ -4345,7 +4756,7 @@
       <c r="F178"/>
       <c r="G178"/>
       <c r="H178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I178"/>
       <c r="J178"/>
@@ -4353,10 +4764,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>45808</v>
+        <v>44469</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C179"/>
       <c r="D179"/>
@@ -4364,7 +4775,7 @@
       <c r="F179"/>
       <c r="G179"/>
       <c r="H179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I179"/>
       <c r="J179"/>
@@ -4372,10 +4783,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>45838</v>
+        <v>44469</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C180"/>
       <c r="D180"/>
@@ -4383,7 +4794,7 @@
       <c r="F180"/>
       <c r="G180"/>
       <c r="H180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I180"/>
       <c r="J180"/>
@@ -4391,10 +4802,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>45838</v>
+        <v>44469</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C181"/>
       <c r="D181"/>
@@ -4402,7 +4813,7 @@
       <c r="F181"/>
       <c r="G181"/>
       <c r="H181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I181"/>
       <c r="J181"/>
@@ -4410,10 +4821,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>45869</v>
+        <v>44500</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C182"/>
       <c r="D182"/>
@@ -4421,7 +4832,7 @@
       <c r="F182"/>
       <c r="G182"/>
       <c r="H182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I182"/>
       <c r="J182"/>
@@ -4429,10 +4840,10 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>45869</v>
+        <v>44500</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C183"/>
       <c r="D183"/>
@@ -4440,7 +4851,7 @@
       <c r="F183"/>
       <c r="G183"/>
       <c r="H183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I183"/>
       <c r="J183"/>
@@ -4448,10 +4859,10 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C184"/>
       <c r="D184"/>
@@ -4459,7 +4870,7 @@
       <c r="F184"/>
       <c r="G184"/>
       <c r="H184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I184"/>
       <c r="J184"/>
@@ -4467,10 +4878,10 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C185"/>
       <c r="D185"/>
@@ -4478,7 +4889,7 @@
       <c r="F185"/>
       <c r="G185"/>
       <c r="H185" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I185"/>
       <c r="J185"/>
@@ -4486,10 +4897,10 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>45930</v>
+        <v>44530</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C186"/>
       <c r="D186"/>
@@ -4497,7 +4908,7 @@
       <c r="F186"/>
       <c r="G186"/>
       <c r="H186" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="I186"/>
       <c r="J186"/>
@@ -4505,10 +4916,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>45930</v>
+        <v>44530</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C187"/>
       <c r="D187"/>
@@ -4516,7 +4927,7 @@
       <c r="F187"/>
       <c r="G187"/>
       <c r="H187" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I187"/>
       <c r="J187"/>
@@ -4524,10 +4935,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>45961</v>
+        <v>44530</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C188"/>
       <c r="D188"/>
@@ -4535,7 +4946,7 @@
       <c r="F188"/>
       <c r="G188"/>
       <c r="H188" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I188"/>
       <c r="J188"/>
@@ -4543,10 +4954,10 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>45961</v>
+        <v>44530</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C189"/>
       <c r="D189"/>
@@ -4554,7 +4965,7 @@
       <c r="F189"/>
       <c r="G189"/>
       <c r="H189" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I189"/>
       <c r="J189"/>
@@ -4562,10 +4973,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>45991</v>
+        <v>44561</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C190"/>
       <c r="D190"/>
@@ -4573,7 +4984,7 @@
       <c r="F190"/>
       <c r="G190"/>
       <c r="H190" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I190"/>
       <c r="J190"/>
@@ -4581,10 +4992,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>45991</v>
+        <v>44561</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C191"/>
       <c r="D191"/>
@@ -4592,7 +5003,7 @@
       <c r="F191"/>
       <c r="G191"/>
       <c r="H191" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="I191"/>
       <c r="J191"/>
@@ -4600,7 +5011,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>46022</v>
+        <v>44561</v>
       </c>
       <c r="B192" t="s">
         <v>13</v>
@@ -4611,7 +5022,7 @@
       <c r="F192"/>
       <c r="G192"/>
       <c r="H192" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="I192"/>
       <c r="J192"/>
@@ -4619,10 +5030,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>46022</v>
+        <v>44561</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C193"/>
       <c r="D193"/>
@@ -4630,11 +5041,3659 @@
       <c r="F193"/>
       <c r="G193"/>
       <c r="H193" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I193"/>
       <c r="J193"/>
       <c r="K193"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194" t="s">
+        <v>188</v>
+      </c>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B195" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195" t="s">
+        <v>79</v>
+      </c>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196" t="s">
+        <v>189</v>
+      </c>
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197" t="s">
+        <v>190</v>
+      </c>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198" t="s">
+        <v>191</v>
+      </c>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199" t="s">
+        <v>192</v>
+      </c>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200" t="s">
+        <v>193</v>
+      </c>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201" t="s">
+        <v>106</v>
+      </c>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202" t="s">
+        <v>194</v>
+      </c>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203" t="s">
+        <v>195</v>
+      </c>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B204" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204" t="s">
+        <v>79</v>
+      </c>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205" t="s">
+        <v>196</v>
+      </c>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="H206" t="s">
+        <v>197</v>
+      </c>
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="H207" t="s">
+        <v>198</v>
+      </c>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208" t="s">
+        <v>199</v>
+      </c>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B209" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209" t="s">
+        <v>200</v>
+      </c>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B210" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210" t="s">
+        <v>166</v>
+      </c>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211" t="s">
+        <v>201</v>
+      </c>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212" t="s">
+        <v>202</v>
+      </c>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213" t="s">
+        <v>203</v>
+      </c>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="H214" t="s">
+        <v>204</v>
+      </c>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215"/>
+      <c r="H215" t="s">
+        <v>205</v>
+      </c>
+      <c r="I215"/>
+      <c r="J215"/>
+      <c r="K215"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B216" t="s">
+        <v>17</v>
+      </c>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
+      <c r="H216" t="s">
+        <v>27</v>
+      </c>
+      <c r="I216"/>
+      <c r="J216"/>
+      <c r="K216"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
+      <c r="H217" t="s">
+        <v>206</v>
+      </c>
+      <c r="I217"/>
+      <c r="J217"/>
+      <c r="K217"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
+      <c r="H218" t="s">
+        <v>207</v>
+      </c>
+      <c r="I218"/>
+      <c r="J218"/>
+      <c r="K218"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B219" t="s">
+        <v>17</v>
+      </c>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
+      <c r="H219" t="s">
+        <v>208</v>
+      </c>
+      <c r="I219"/>
+      <c r="J219"/>
+      <c r="K219"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
+      <c r="H220" t="s">
+        <v>209</v>
+      </c>
+      <c r="I220"/>
+      <c r="J220"/>
+      <c r="K220"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+      <c r="H221" t="s">
+        <v>150</v>
+      </c>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+      <c r="H222" t="s">
+        <v>210</v>
+      </c>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
+      <c r="H223" t="s">
+        <v>211</v>
+      </c>
+      <c r="I223"/>
+      <c r="J223"/>
+      <c r="K223"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B224" t="s">
+        <v>17</v>
+      </c>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+      <c r="H224" t="s">
+        <v>36</v>
+      </c>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
+      <c r="H225" t="s">
+        <v>212</v>
+      </c>
+      <c r="I225"/>
+      <c r="J225"/>
+      <c r="K225"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
+      <c r="G226"/>
+      <c r="H226" t="s">
+        <v>213</v>
+      </c>
+      <c r="I226"/>
+      <c r="J226"/>
+      <c r="K226"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
+      <c r="G227"/>
+      <c r="H227" t="s">
+        <v>214</v>
+      </c>
+      <c r="I227"/>
+      <c r="J227"/>
+      <c r="K227"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228"/>
+      <c r="G228"/>
+      <c r="H228" t="s">
+        <v>65</v>
+      </c>
+      <c r="I228"/>
+      <c r="J228"/>
+      <c r="K228"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B229" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229"/>
+      <c r="G229"/>
+      <c r="H229" t="s">
+        <v>69</v>
+      </c>
+      <c r="I229"/>
+      <c r="J229"/>
+      <c r="K229"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
+      <c r="G230"/>
+      <c r="H230" t="s">
+        <v>215</v>
+      </c>
+      <c r="I230"/>
+      <c r="J230"/>
+      <c r="K230"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231"/>
+      <c r="H231" t="s">
+        <v>216</v>
+      </c>
+      <c r="I231"/>
+      <c r="J231"/>
+      <c r="K231"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
+      <c r="G232"/>
+      <c r="H232" t="s">
+        <v>217</v>
+      </c>
+      <c r="I232"/>
+      <c r="J232"/>
+      <c r="K232"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233"/>
+      <c r="G233"/>
+      <c r="H233" t="s">
+        <v>218</v>
+      </c>
+      <c r="I233"/>
+      <c r="J233"/>
+      <c r="K233"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234"/>
+      <c r="G234"/>
+      <c r="H234" t="s">
+        <v>219</v>
+      </c>
+      <c r="I234"/>
+      <c r="J234"/>
+      <c r="K234"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
+      <c r="G235"/>
+      <c r="H235" t="s">
+        <v>220</v>
+      </c>
+      <c r="I235"/>
+      <c r="J235"/>
+      <c r="K235"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236"/>
+      <c r="G236"/>
+      <c r="H236" t="s">
+        <v>221</v>
+      </c>
+      <c r="I236"/>
+      <c r="J236"/>
+      <c r="K236"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B237" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
+      <c r="G237"/>
+      <c r="H237" t="s">
+        <v>118</v>
+      </c>
+      <c r="I237"/>
+      <c r="J237"/>
+      <c r="K237"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238"/>
+      <c r="G238"/>
+      <c r="H238" t="s">
+        <v>14</v>
+      </c>
+      <c r="I238"/>
+      <c r="J238"/>
+      <c r="K238"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B239" t="s">
+        <v>17</v>
+      </c>
+      <c r="C239"/>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239"/>
+      <c r="G239"/>
+      <c r="H239" t="s">
+        <v>18</v>
+      </c>
+      <c r="I239"/>
+      <c r="J239"/>
+      <c r="K239"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240"/>
+      <c r="G240"/>
+      <c r="H240" t="s">
+        <v>222</v>
+      </c>
+      <c r="I240"/>
+      <c r="J240"/>
+      <c r="K240"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241"/>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241"/>
+      <c r="G241"/>
+      <c r="H241" t="s">
+        <v>223</v>
+      </c>
+      <c r="I241"/>
+      <c r="J241"/>
+      <c r="K241"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
+      <c r="G242"/>
+      <c r="H242" t="s">
+        <v>224</v>
+      </c>
+      <c r="I242"/>
+      <c r="J242"/>
+      <c r="K242"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
+      <c r="G243"/>
+      <c r="H243" t="s">
+        <v>225</v>
+      </c>
+      <c r="I243"/>
+      <c r="J243"/>
+      <c r="K243"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B244" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244"/>
+      <c r="G244"/>
+      <c r="H244" t="s">
+        <v>226</v>
+      </c>
+      <c r="I244"/>
+      <c r="J244"/>
+      <c r="K244"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B245" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245"/>
+      <c r="H245" t="s">
+        <v>227</v>
+      </c>
+      <c r="I245"/>
+      <c r="J245"/>
+      <c r="K245"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B246" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
+      <c r="G246"/>
+      <c r="H246" t="s">
+        <v>125</v>
+      </c>
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
+      <c r="G247"/>
+      <c r="H247" t="s">
+        <v>228</v>
+      </c>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
+      <c r="G248"/>
+      <c r="H248" t="s">
+        <v>229</v>
+      </c>
+      <c r="I248"/>
+      <c r="J248"/>
+      <c r="K248"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249"/>
+      <c r="H249" t="s">
+        <v>230</v>
+      </c>
+      <c r="I249"/>
+      <c r="J249"/>
+      <c r="K249"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250"/>
+      <c r="H250" t="s">
+        <v>79</v>
+      </c>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251"/>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251"/>
+      <c r="G251"/>
+      <c r="H251" t="s">
+        <v>231</v>
+      </c>
+      <c r="I251"/>
+      <c r="J251"/>
+      <c r="K251"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252"/>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252"/>
+      <c r="G252"/>
+      <c r="H252" t="s">
+        <v>232</v>
+      </c>
+      <c r="I252"/>
+      <c r="J252"/>
+      <c r="K252"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253"/>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
+      <c r="G253"/>
+      <c r="H253" t="s">
+        <v>233</v>
+      </c>
+      <c r="I253"/>
+      <c r="J253"/>
+      <c r="K253"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254"/>
+      <c r="H254" t="s">
+        <v>234</v>
+      </c>
+      <c r="I254"/>
+      <c r="J254"/>
+      <c r="K254"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255"/>
+      <c r="H255" t="s">
+        <v>130</v>
+      </c>
+      <c r="I255"/>
+      <c r="J255"/>
+      <c r="K255"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B256" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
+      <c r="G256"/>
+      <c r="H256" t="s">
+        <v>235</v>
+      </c>
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B257" t="s">
+        <v>17</v>
+      </c>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257"/>
+      <c r="G257"/>
+      <c r="H257" t="s">
+        <v>69</v>
+      </c>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B258" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258"/>
+      <c r="H258" t="s">
+        <v>236</v>
+      </c>
+      <c r="I258"/>
+      <c r="J258"/>
+      <c r="K258"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+      <c r="G259"/>
+      <c r="H259" t="s">
+        <v>237</v>
+      </c>
+      <c r="I259"/>
+      <c r="J259"/>
+      <c r="K259"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+      <c r="F260"/>
+      <c r="G260"/>
+      <c r="H260" t="s">
+        <v>238</v>
+      </c>
+      <c r="I260"/>
+      <c r="J260"/>
+      <c r="K260"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B261" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
+      <c r="G261"/>
+      <c r="H261" t="s">
+        <v>216</v>
+      </c>
+      <c r="I261"/>
+      <c r="J261"/>
+      <c r="K261"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B262" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262"/>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262"/>
+      <c r="G262"/>
+      <c r="H262" t="s">
+        <v>239</v>
+      </c>
+      <c r="I262"/>
+      <c r="J262"/>
+      <c r="K262"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B263" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263"/>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
+      <c r="G263"/>
+      <c r="H263" t="s">
+        <v>240</v>
+      </c>
+      <c r="I263"/>
+      <c r="J263"/>
+      <c r="K263"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B264" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264"/>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264"/>
+      <c r="G264"/>
+      <c r="H264" t="s">
+        <v>241</v>
+      </c>
+      <c r="I264"/>
+      <c r="J264"/>
+      <c r="K264"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B265" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265"/>
+      <c r="G265"/>
+      <c r="H265" t="s">
+        <v>242</v>
+      </c>
+      <c r="I265"/>
+      <c r="J265"/>
+      <c r="K265"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B266" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266"/>
+      <c r="G266"/>
+      <c r="H266" t="s">
+        <v>216</v>
+      </c>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267"/>
+      <c r="G267"/>
+      <c r="H267" t="s">
+        <v>243</v>
+      </c>
+      <c r="I267"/>
+      <c r="J267"/>
+      <c r="K267"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268"/>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268"/>
+      <c r="G268"/>
+      <c r="H268" t="s">
+        <v>244</v>
+      </c>
+      <c r="I268"/>
+      <c r="J268"/>
+      <c r="K268"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269"/>
+      <c r="G269"/>
+      <c r="H269" t="s">
+        <v>245</v>
+      </c>
+      <c r="I269"/>
+      <c r="J269"/>
+      <c r="K269"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270"/>
+      <c r="D270"/>
+      <c r="E270"/>
+      <c r="F270"/>
+      <c r="G270"/>
+      <c r="H270" t="s">
+        <v>44</v>
+      </c>
+      <c r="I270"/>
+      <c r="J270"/>
+      <c r="K270"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
+      <c r="G271"/>
+      <c r="H271" t="s">
+        <v>246</v>
+      </c>
+      <c r="I271"/>
+      <c r="J271"/>
+      <c r="K271"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272"/>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272"/>
+      <c r="G272"/>
+      <c r="H272" t="s">
+        <v>247</v>
+      </c>
+      <c r="I272"/>
+      <c r="J272"/>
+      <c r="K272"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B273" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273"/>
+      <c r="G273"/>
+      <c r="H273" t="s">
+        <v>69</v>
+      </c>
+      <c r="I273"/>
+      <c r="J273"/>
+      <c r="K273"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B274" t="s">
+        <v>17</v>
+      </c>
+      <c r="C274"/>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274"/>
+      <c r="G274"/>
+      <c r="H274" t="s">
+        <v>69</v>
+      </c>
+      <c r="I274"/>
+      <c r="J274"/>
+      <c r="K274"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275"/>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275"/>
+      <c r="G275"/>
+      <c r="H275" t="s">
+        <v>128</v>
+      </c>
+      <c r="I275"/>
+      <c r="J275"/>
+      <c r="K275"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276"/>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276"/>
+      <c r="G276"/>
+      <c r="H276" t="s">
+        <v>248</v>
+      </c>
+      <c r="I276"/>
+      <c r="J276"/>
+      <c r="K276"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277"/>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277"/>
+      <c r="G277"/>
+      <c r="H277" t="s">
+        <v>203</v>
+      </c>
+      <c r="I277"/>
+      <c r="J277"/>
+      <c r="K277"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B278" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278"/>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278"/>
+      <c r="G278"/>
+      <c r="H278" t="s">
+        <v>40</v>
+      </c>
+      <c r="I278"/>
+      <c r="J278"/>
+      <c r="K278"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279"/>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279"/>
+      <c r="G279"/>
+      <c r="H279" t="s">
+        <v>249</v>
+      </c>
+      <c r="I279"/>
+      <c r="J279"/>
+      <c r="K279"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280"/>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280"/>
+      <c r="G280"/>
+      <c r="H280" t="s">
+        <v>250</v>
+      </c>
+      <c r="I280"/>
+      <c r="J280"/>
+      <c r="K280"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281"/>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281"/>
+      <c r="G281"/>
+      <c r="H281" t="s">
+        <v>251</v>
+      </c>
+      <c r="I281"/>
+      <c r="J281"/>
+      <c r="K281"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282"/>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282"/>
+      <c r="G282"/>
+      <c r="H282" t="s">
+        <v>252</v>
+      </c>
+      <c r="I282"/>
+      <c r="J282"/>
+      <c r="K282"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283"/>
+      <c r="D283"/>
+      <c r="E283"/>
+      <c r="F283"/>
+      <c r="G283"/>
+      <c r="H283" t="s">
+        <v>253</v>
+      </c>
+      <c r="I283"/>
+      <c r="J283"/>
+      <c r="K283"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B284" t="s">
+        <v>17</v>
+      </c>
+      <c r="C284"/>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284"/>
+      <c r="G284"/>
+      <c r="H284" t="s">
+        <v>67</v>
+      </c>
+      <c r="I284"/>
+      <c r="J284"/>
+      <c r="K284"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285"/>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285"/>
+      <c r="G285"/>
+      <c r="H285" t="s">
+        <v>254</v>
+      </c>
+      <c r="I285"/>
+      <c r="J285"/>
+      <c r="K285"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286"/>
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286"/>
+      <c r="G286"/>
+      <c r="H286" t="s">
+        <v>255</v>
+      </c>
+      <c r="I286"/>
+      <c r="J286"/>
+      <c r="K286"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287"/>
+      <c r="D287"/>
+      <c r="E287"/>
+      <c r="F287"/>
+      <c r="G287"/>
+      <c r="H287" t="s">
+        <v>256</v>
+      </c>
+      <c r="I287"/>
+      <c r="J287"/>
+      <c r="K287"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288"/>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288"/>
+      <c r="G288"/>
+      <c r="H288" t="s">
+        <v>257</v>
+      </c>
+      <c r="I288"/>
+      <c r="J288"/>
+      <c r="K288"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289"/>
+      <c r="D289"/>
+      <c r="E289"/>
+      <c r="F289"/>
+      <c r="G289"/>
+      <c r="H289" t="s">
+        <v>258</v>
+      </c>
+      <c r="I289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B290" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290"/>
+      <c r="D290"/>
+      <c r="E290"/>
+      <c r="F290"/>
+      <c r="G290"/>
+      <c r="H290" t="s">
+        <v>259</v>
+      </c>
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="s">
+        <v>15</v>
+      </c>
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+      <c r="F291"/>
+      <c r="G291"/>
+      <c r="H291" t="s">
+        <v>260</v>
+      </c>
+      <c r="I291"/>
+      <c r="J291"/>
+      <c r="K291"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B292" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292"/>
+      <c r="G292"/>
+      <c r="H292" t="s">
+        <v>261</v>
+      </c>
+      <c r="I292"/>
+      <c r="J292"/>
+      <c r="K292"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293"/>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293"/>
+      <c r="G293"/>
+      <c r="H293" t="s">
+        <v>262</v>
+      </c>
+      <c r="I293"/>
+      <c r="J293"/>
+      <c r="K293"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B294" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294"/>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294"/>
+      <c r="G294"/>
+      <c r="H294" t="s">
+        <v>263</v>
+      </c>
+      <c r="I294"/>
+      <c r="J294"/>
+      <c r="K294"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295"/>
+      <c r="G295"/>
+      <c r="H295" t="s">
+        <v>264</v>
+      </c>
+      <c r="I295"/>
+      <c r="J295"/>
+      <c r="K295"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B296" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296"/>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296"/>
+      <c r="G296"/>
+      <c r="H296" t="s">
+        <v>227</v>
+      </c>
+      <c r="I296"/>
+      <c r="J296"/>
+      <c r="K296"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297"/>
+      <c r="G297"/>
+      <c r="H297" t="s">
+        <v>265</v>
+      </c>
+      <c r="I297"/>
+      <c r="J297"/>
+      <c r="K297"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B298" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298"/>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298"/>
+      <c r="G298"/>
+      <c r="H298" t="s">
+        <v>266</v>
+      </c>
+      <c r="I298"/>
+      <c r="J298"/>
+      <c r="K298"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B299" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299"/>
+      <c r="D299"/>
+      <c r="E299"/>
+      <c r="F299"/>
+      <c r="G299"/>
+      <c r="H299" t="s">
+        <v>267</v>
+      </c>
+      <c r="I299"/>
+      <c r="J299"/>
+      <c r="K299"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300"/>
+      <c r="D300"/>
+      <c r="E300"/>
+      <c r="F300"/>
+      <c r="G300"/>
+      <c r="H300" t="s">
+        <v>268</v>
+      </c>
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301"/>
+      <c r="D301"/>
+      <c r="E301"/>
+      <c r="F301"/>
+      <c r="G301"/>
+      <c r="H301" t="s">
+        <v>269</v>
+      </c>
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B302" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302"/>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302"/>
+      <c r="G302"/>
+      <c r="H302" t="s">
+        <v>270</v>
+      </c>
+      <c r="I302"/>
+      <c r="J302"/>
+      <c r="K302"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B303" t="s">
+        <v>17</v>
+      </c>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303"/>
+      <c r="G303"/>
+      <c r="H303" t="s">
+        <v>106</v>
+      </c>
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304"/>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304"/>
+      <c r="G304"/>
+      <c r="H304" t="s">
+        <v>271</v>
+      </c>
+      <c r="I304"/>
+      <c r="J304"/>
+      <c r="K304"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305"/>
+      <c r="G305"/>
+      <c r="H305" t="s">
+        <v>272</v>
+      </c>
+      <c r="I305"/>
+      <c r="J305"/>
+      <c r="K305"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B306" t="s">
+        <v>17</v>
+      </c>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306"/>
+      <c r="G306"/>
+      <c r="H306" t="s">
+        <v>239</v>
+      </c>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307"/>
+      <c r="G307"/>
+      <c r="H307" t="s">
+        <v>273</v>
+      </c>
+      <c r="I307"/>
+      <c r="J307"/>
+      <c r="K307"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B308" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308"/>
+      <c r="G308"/>
+      <c r="H308" t="s">
+        <v>274</v>
+      </c>
+      <c r="I308"/>
+      <c r="J308"/>
+      <c r="K308"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B309" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309"/>
+      <c r="G309"/>
+      <c r="H309" t="s">
+        <v>275</v>
+      </c>
+      <c r="I309"/>
+      <c r="J309"/>
+      <c r="K309"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B310" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310"/>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
+      <c r="G310"/>
+      <c r="H310" t="s">
+        <v>276</v>
+      </c>
+      <c r="I310"/>
+      <c r="J310"/>
+      <c r="K310"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B311" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311"/>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311"/>
+      <c r="G311"/>
+      <c r="H311" t="s">
+        <v>277</v>
+      </c>
+      <c r="I311"/>
+      <c r="J311"/>
+      <c r="K311"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B312" t="s">
+        <v>15</v>
+      </c>
+      <c r="C312"/>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312"/>
+      <c r="G312"/>
+      <c r="H312" t="s">
+        <v>278</v>
+      </c>
+      <c r="I312"/>
+      <c r="J312"/>
+      <c r="K312"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B313" t="s">
+        <v>17</v>
+      </c>
+      <c r="C313"/>
+      <c r="D313"/>
+      <c r="E313"/>
+      <c r="F313"/>
+      <c r="G313"/>
+      <c r="H313" t="s">
+        <v>208</v>
+      </c>
+      <c r="I313"/>
+      <c r="J313"/>
+      <c r="K313"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B314" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314"/>
+      <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314"/>
+      <c r="G314"/>
+      <c r="H314" t="s">
+        <v>279</v>
+      </c>
+      <c r="I314"/>
+      <c r="J314"/>
+      <c r="K314"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315"/>
+      <c r="G315"/>
+      <c r="H315" t="s">
+        <v>280</v>
+      </c>
+      <c r="I315"/>
+      <c r="J315"/>
+      <c r="K315"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316"/>
+      <c r="G316"/>
+      <c r="H316" t="s">
+        <v>42</v>
+      </c>
+      <c r="I316"/>
+      <c r="J316"/>
+      <c r="K316"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B317" t="s">
+        <v>17</v>
+      </c>
+      <c r="C317"/>
+      <c r="D317"/>
+      <c r="E317"/>
+      <c r="F317"/>
+      <c r="G317"/>
+      <c r="H317" t="s">
+        <v>131</v>
+      </c>
+      <c r="I317"/>
+      <c r="J317"/>
+      <c r="K317"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B318" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318"/>
+      <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318"/>
+      <c r="G318"/>
+      <c r="H318" t="s">
+        <v>281</v>
+      </c>
+      <c r="I318"/>
+      <c r="J318"/>
+      <c r="K318"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B319" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319"/>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319"/>
+      <c r="G319"/>
+      <c r="H319" t="s">
+        <v>282</v>
+      </c>
+      <c r="I319"/>
+      <c r="J319"/>
+      <c r="K319"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B320" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
+      <c r="G320"/>
+      <c r="H320" t="s">
+        <v>131</v>
+      </c>
+      <c r="I320"/>
+      <c r="J320"/>
+      <c r="K320"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B321" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321"/>
+      <c r="G321"/>
+      <c r="H321" t="s">
+        <v>283</v>
+      </c>
+      <c r="I321"/>
+      <c r="J321"/>
+      <c r="K321"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B322" t="s">
+        <v>15</v>
+      </c>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322"/>
+      <c r="G322"/>
+      <c r="H322" t="s">
+        <v>284</v>
+      </c>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B323" t="s">
+        <v>17</v>
+      </c>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323"/>
+      <c r="G323"/>
+      <c r="H323" t="s">
+        <v>92</v>
+      </c>
+      <c r="I323"/>
+      <c r="J323"/>
+      <c r="K323"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B324" t="s">
+        <v>11</v>
+      </c>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324"/>
+      <c r="G324"/>
+      <c r="H324" t="s">
+        <v>285</v>
+      </c>
+      <c r="I324"/>
+      <c r="J324"/>
+      <c r="K324"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B325" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325"/>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325"/>
+      <c r="G325"/>
+      <c r="H325" t="s">
+        <v>286</v>
+      </c>
+      <c r="I325"/>
+      <c r="J325"/>
+      <c r="K325"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B326" t="s">
+        <v>15</v>
+      </c>
+      <c r="C326"/>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326"/>
+      <c r="G326"/>
+      <c r="H326" t="s">
+        <v>287</v>
+      </c>
+      <c r="I326"/>
+      <c r="J326"/>
+      <c r="K326"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
+      <c r="G327"/>
+      <c r="H327" t="s">
+        <v>288</v>
+      </c>
+      <c r="I327"/>
+      <c r="J327"/>
+      <c r="K327"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B328" t="s">
+        <v>17</v>
+      </c>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328"/>
+      <c r="G328"/>
+      <c r="H328" t="s">
+        <v>113</v>
+      </c>
+      <c r="I328"/>
+      <c r="J328"/>
+      <c r="K328"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B329" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329"/>
+      <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329"/>
+      <c r="G329"/>
+      <c r="H329" t="s">
+        <v>289</v>
+      </c>
+      <c r="I329"/>
+      <c r="J329"/>
+      <c r="K329"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B330" t="s">
+        <v>15</v>
+      </c>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330"/>
+      <c r="G330"/>
+      <c r="H330" t="s">
+        <v>290</v>
+      </c>
+      <c r="I330"/>
+      <c r="J330"/>
+      <c r="K330"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B331" t="s">
+        <v>13</v>
+      </c>
+      <c r="C331"/>
+      <c r="D331"/>
+      <c r="E331"/>
+      <c r="F331"/>
+      <c r="G331"/>
+      <c r="H331" t="s">
+        <v>291</v>
+      </c>
+      <c r="I331"/>
+      <c r="J331"/>
+      <c r="K331"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B332" t="s">
+        <v>11</v>
+      </c>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332"/>
+      <c r="G332"/>
+      <c r="H332" t="s">
+        <v>292</v>
+      </c>
+      <c r="I332"/>
+      <c r="J332"/>
+      <c r="K332"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B333" t="s">
+        <v>17</v>
+      </c>
+      <c r="C333"/>
+      <c r="D333"/>
+      <c r="E333"/>
+      <c r="F333"/>
+      <c r="G333"/>
+      <c r="H333" t="s">
+        <v>293</v>
+      </c>
+      <c r="I333"/>
+      <c r="J333"/>
+      <c r="K333"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B334" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334"/>
+      <c r="D334"/>
+      <c r="E334"/>
+      <c r="F334"/>
+      <c r="G334"/>
+      <c r="H334" t="s">
+        <v>294</v>
+      </c>
+      <c r="I334"/>
+      <c r="J334"/>
+      <c r="K334"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B335" t="s">
+        <v>17</v>
+      </c>
+      <c r="C335"/>
+      <c r="D335"/>
+      <c r="E335"/>
+      <c r="F335"/>
+      <c r="G335"/>
+      <c r="H335" t="s">
+        <v>125</v>
+      </c>
+      <c r="I335"/>
+      <c r="J335"/>
+      <c r="K335"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B336" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336"/>
+      <c r="D336"/>
+      <c r="E336"/>
+      <c r="F336"/>
+      <c r="G336"/>
+      <c r="H336" t="s">
+        <v>295</v>
+      </c>
+      <c r="I336"/>
+      <c r="J336"/>
+      <c r="K336"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B337" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337"/>
+      <c r="D337"/>
+      <c r="E337"/>
+      <c r="F337"/>
+      <c r="G337"/>
+      <c r="H337" t="s">
+        <v>296</v>
+      </c>
+      <c r="I337"/>
+      <c r="J337"/>
+      <c r="K337"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B338" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338"/>
+      <c r="D338"/>
+      <c r="E338"/>
+      <c r="F338"/>
+      <c r="G338"/>
+      <c r="H338" t="s">
+        <v>238</v>
+      </c>
+      <c r="I338"/>
+      <c r="J338"/>
+      <c r="K338"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B339" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339"/>
+      <c r="D339"/>
+      <c r="E339"/>
+      <c r="F339"/>
+      <c r="G339"/>
+      <c r="H339" t="s">
+        <v>297</v>
+      </c>
+      <c r="I339"/>
+      <c r="J339"/>
+      <c r="K339"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B340" t="s">
+        <v>17</v>
+      </c>
+      <c r="C340"/>
+      <c r="D340"/>
+      <c r="E340"/>
+      <c r="F340"/>
+      <c r="G340"/>
+      <c r="H340" t="s">
+        <v>67</v>
+      </c>
+      <c r="I340"/>
+      <c r="J340"/>
+      <c r="K340"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B341" t="s">
+        <v>13</v>
+      </c>
+      <c r="C341"/>
+      <c r="D341"/>
+      <c r="E341"/>
+      <c r="F341"/>
+      <c r="G341"/>
+      <c r="H341" t="s">
+        <v>298</v>
+      </c>
+      <c r="I341"/>
+      <c r="J341"/>
+      <c r="K341"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B342" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342"/>
+      <c r="G342"/>
+      <c r="H342" t="s">
+        <v>299</v>
+      </c>
+      <c r="I342"/>
+      <c r="J342"/>
+      <c r="K342"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B343" t="s">
+        <v>15</v>
+      </c>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343"/>
+      <c r="F343"/>
+      <c r="G343"/>
+      <c r="H343" t="s">
+        <v>225</v>
+      </c>
+      <c r="I343"/>
+      <c r="J343"/>
+      <c r="K343"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B344" t="s">
+        <v>17</v>
+      </c>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344"/>
+      <c r="F344"/>
+      <c r="G344"/>
+      <c r="H344" t="s">
+        <v>259</v>
+      </c>
+      <c r="I344"/>
+      <c r="J344"/>
+      <c r="K344"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B345" t="s">
+        <v>13</v>
+      </c>
+      <c r="C345"/>
+      <c r="D345"/>
+      <c r="E345"/>
+      <c r="F345"/>
+      <c r="G345"/>
+      <c r="H345" t="s">
+        <v>300</v>
+      </c>
+      <c r="I345"/>
+      <c r="J345"/>
+      <c r="K345"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B346" t="s">
+        <v>15</v>
+      </c>
+      <c r="C346"/>
+      <c r="D346"/>
+      <c r="E346"/>
+      <c r="F346"/>
+      <c r="G346"/>
+      <c r="H346" t="s">
+        <v>301</v>
+      </c>
+      <c r="I346"/>
+      <c r="J346"/>
+      <c r="K346"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B347" t="s">
+        <v>17</v>
+      </c>
+      <c r="C347"/>
+      <c r="D347"/>
+      <c r="E347"/>
+      <c r="F347"/>
+      <c r="G347"/>
+      <c r="H347" t="s">
+        <v>20</v>
+      </c>
+      <c r="I347"/>
+      <c r="J347"/>
+      <c r="K347"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B348" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348"/>
+      <c r="D348"/>
+      <c r="E348"/>
+      <c r="F348"/>
+      <c r="G348"/>
+      <c r="H348" t="s">
+        <v>302</v>
+      </c>
+      <c r="I348"/>
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B349" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349"/>
+      <c r="D349"/>
+      <c r="E349"/>
+      <c r="F349"/>
+      <c r="G349"/>
+      <c r="H349" t="s">
+        <v>303</v>
+      </c>
+      <c r="I349"/>
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B350" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350"/>
+      <c r="D350"/>
+      <c r="E350"/>
+      <c r="F350"/>
+      <c r="G350"/>
+      <c r="H350" t="s">
+        <v>304</v>
+      </c>
+      <c r="I350"/>
+      <c r="J350"/>
+      <c r="K350"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B351" t="s">
+        <v>15</v>
+      </c>
+      <c r="C351"/>
+      <c r="D351"/>
+      <c r="E351"/>
+      <c r="F351"/>
+      <c r="G351"/>
+      <c r="H351" t="s">
+        <v>305</v>
+      </c>
+      <c r="I351"/>
+      <c r="J351"/>
+      <c r="K351"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B352" t="s">
+        <v>13</v>
+      </c>
+      <c r="C352"/>
+      <c r="D352"/>
+      <c r="E352"/>
+      <c r="F352"/>
+      <c r="G352"/>
+      <c r="H352" t="s">
+        <v>306</v>
+      </c>
+      <c r="I352"/>
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B353" t="s">
+        <v>17</v>
+      </c>
+      <c r="C353"/>
+      <c r="D353"/>
+      <c r="E353"/>
+      <c r="F353"/>
+      <c r="G353"/>
+      <c r="H353" t="s">
+        <v>79</v>
+      </c>
+      <c r="I353"/>
+      <c r="J353"/>
+      <c r="K353"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B354" t="s">
+        <v>17</v>
+      </c>
+      <c r="C354"/>
+      <c r="D354"/>
+      <c r="E354"/>
+      <c r="F354"/>
+      <c r="G354"/>
+      <c r="H354" t="s">
+        <v>106</v>
+      </c>
+      <c r="I354"/>
+      <c r="J354"/>
+      <c r="K354"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355"/>
+      <c r="D355"/>
+      <c r="E355"/>
+      <c r="F355"/>
+      <c r="G355"/>
+      <c r="H355" t="s">
+        <v>307</v>
+      </c>
+      <c r="I355"/>
+      <c r="J355"/>
+      <c r="K355"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B356" t="s">
+        <v>15</v>
+      </c>
+      <c r="C356"/>
+      <c r="D356"/>
+      <c r="E356"/>
+      <c r="F356"/>
+      <c r="G356"/>
+      <c r="H356" t="s">
+        <v>308</v>
+      </c>
+      <c r="I356"/>
+      <c r="J356"/>
+      <c r="K356"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B357" t="s">
+        <v>13</v>
+      </c>
+      <c r="C357"/>
+      <c r="D357"/>
+      <c r="E357"/>
+      <c r="F357"/>
+      <c r="G357"/>
+      <c r="H357" t="s">
+        <v>309</v>
+      </c>
+      <c r="I357"/>
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B358" t="s">
+        <v>15</v>
+      </c>
+      <c r="C358"/>
+      <c r="D358"/>
+      <c r="E358"/>
+      <c r="F358"/>
+      <c r="G358"/>
+      <c r="H358" t="s">
+        <v>310</v>
+      </c>
+      <c r="I358"/>
+      <c r="J358"/>
+      <c r="K358"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B359" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359"/>
+      <c r="G359"/>
+      <c r="H359" t="s">
+        <v>62</v>
+      </c>
+      <c r="I359"/>
+      <c r="J359"/>
+      <c r="K359"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B360" t="s">
+        <v>13</v>
+      </c>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360"/>
+      <c r="G360"/>
+      <c r="H360" t="s">
+        <v>311</v>
+      </c>
+      <c r="I360"/>
+      <c r="J360"/>
+      <c r="K360"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361"/>
+      <c r="D361"/>
+      <c r="E361"/>
+      <c r="F361"/>
+      <c r="G361"/>
+      <c r="H361" t="s">
+        <v>312</v>
+      </c>
+      <c r="I361"/>
+      <c r="J361"/>
+      <c r="K361"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B362" t="s">
+        <v>15</v>
+      </c>
+      <c r="C362"/>
+      <c r="D362"/>
+      <c r="E362"/>
+      <c r="F362"/>
+      <c r="G362"/>
+      <c r="H362" t="s">
+        <v>110</v>
+      </c>
+      <c r="I362"/>
+      <c r="J362"/>
+      <c r="K362"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B363" t="s">
+        <v>13</v>
+      </c>
+      <c r="C363"/>
+      <c r="D363"/>
+      <c r="E363"/>
+      <c r="F363"/>
+      <c r="G363"/>
+      <c r="H363" t="s">
+        <v>313</v>
+      </c>
+      <c r="I363"/>
+      <c r="J363"/>
+      <c r="K363"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B364" t="s">
+        <v>17</v>
+      </c>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364"/>
+      <c r="G364"/>
+      <c r="H364" t="s">
+        <v>216</v>
+      </c>
+      <c r="I364"/>
+      <c r="J364"/>
+      <c r="K364"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B365" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365"/>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="F365"/>
+      <c r="G365"/>
+      <c r="H365" t="s">
+        <v>314</v>
+      </c>
+      <c r="I365"/>
+      <c r="J365"/>
+      <c r="K365"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366"/>
+      <c r="D366"/>
+      <c r="E366"/>
+      <c r="F366"/>
+      <c r="G366"/>
+      <c r="H366" t="s">
+        <v>315</v>
+      </c>
+      <c r="I366"/>
+      <c r="J366"/>
+      <c r="K366"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B367" t="s">
+        <v>13</v>
+      </c>
+      <c r="C367"/>
+      <c r="D367"/>
+      <c r="E367"/>
+      <c r="F367"/>
+      <c r="G367"/>
+      <c r="H367" t="s">
+        <v>316</v>
+      </c>
+      <c r="I367"/>
+      <c r="J367"/>
+      <c r="K367"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B368" t="s">
+        <v>15</v>
+      </c>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368"/>
+      <c r="G368"/>
+      <c r="H368" t="s">
+        <v>41</v>
+      </c>
+      <c r="I368"/>
+      <c r="J368"/>
+      <c r="K368"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B369" t="s">
+        <v>17</v>
+      </c>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369"/>
+      <c r="G369"/>
+      <c r="H369" t="s">
+        <v>67</v>
+      </c>
+      <c r="I369"/>
+      <c r="J369"/>
+      <c r="K369"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370"/>
+      <c r="D370"/>
+      <c r="E370"/>
+      <c r="F370"/>
+      <c r="G370"/>
+      <c r="H370" t="s">
+        <v>317</v>
+      </c>
+      <c r="I370"/>
+      <c r="J370"/>
+      <c r="K370"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371"/>
+      <c r="G371"/>
+      <c r="H371" t="s">
+        <v>318</v>
+      </c>
+      <c r="I371"/>
+      <c r="J371"/>
+      <c r="K371"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B372" t="s">
+        <v>17</v>
+      </c>
+      <c r="C372"/>
+      <c r="D372"/>
+      <c r="E372"/>
+      <c r="F372"/>
+      <c r="G372"/>
+      <c r="H372" t="s">
+        <v>34</v>
+      </c>
+      <c r="I372"/>
+      <c r="J372"/>
+      <c r="K372"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373"/>
+      <c r="D373"/>
+      <c r="E373"/>
+      <c r="F373"/>
+      <c r="G373"/>
+      <c r="H373" t="s">
+        <v>319</v>
+      </c>
+      <c r="I373"/>
+      <c r="J373"/>
+      <c r="K373"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B374" t="s">
+        <v>17</v>
+      </c>
+      <c r="C374"/>
+      <c r="D374"/>
+      <c r="E374"/>
+      <c r="F374"/>
+      <c r="G374"/>
+      <c r="H374" t="s">
+        <v>67</v>
+      </c>
+      <c r="I374"/>
+      <c r="J374"/>
+      <c r="K374"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B375" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375"/>
+      <c r="D375"/>
+      <c r="E375"/>
+      <c r="F375"/>
+      <c r="G375"/>
+      <c r="H375" t="s">
+        <v>320</v>
+      </c>
+      <c r="I375"/>
+      <c r="J375"/>
+      <c r="K375"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B376" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376"/>
+      <c r="D376"/>
+      <c r="E376"/>
+      <c r="F376"/>
+      <c r="G376"/>
+      <c r="H376" t="s">
+        <v>321</v>
+      </c>
+      <c r="I376"/>
+      <c r="J376"/>
+      <c r="K376"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B377" t="s">
+        <v>13</v>
+      </c>
+      <c r="C377"/>
+      <c r="D377"/>
+      <c r="E377"/>
+      <c r="F377"/>
+      <c r="G377"/>
+      <c r="H377" t="s">
+        <v>322</v>
+      </c>
+      <c r="I377"/>
+      <c r="J377"/>
+      <c r="K377"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B378" t="s">
+        <v>11</v>
+      </c>
+      <c r="C378"/>
+      <c r="D378"/>
+      <c r="E378"/>
+      <c r="F378"/>
+      <c r="G378"/>
+      <c r="H378" t="s">
+        <v>33</v>
+      </c>
+      <c r="I378"/>
+      <c r="J378"/>
+      <c r="K378"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B379" t="s">
+        <v>13</v>
+      </c>
+      <c r="C379"/>
+      <c r="D379"/>
+      <c r="E379"/>
+      <c r="F379"/>
+      <c r="G379"/>
+      <c r="H379" t="s">
+        <v>323</v>
+      </c>
+      <c r="I379"/>
+      <c r="J379"/>
+      <c r="K379"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B380" t="s">
+        <v>17</v>
+      </c>
+      <c r="C380"/>
+      <c r="D380"/>
+      <c r="E380"/>
+      <c r="F380"/>
+      <c r="G380"/>
+      <c r="H380" t="s">
+        <v>125</v>
+      </c>
+      <c r="I380"/>
+      <c r="J380"/>
+      <c r="K380"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B381" t="s">
+        <v>15</v>
+      </c>
+      <c r="C381"/>
+      <c r="D381"/>
+      <c r="E381"/>
+      <c r="F381"/>
+      <c r="G381"/>
+      <c r="H381" t="s">
+        <v>324</v>
+      </c>
+      <c r="I381"/>
+      <c r="J381"/>
+      <c r="K381"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B382" t="s">
+        <v>17</v>
+      </c>
+      <c r="C382"/>
+      <c r="D382"/>
+      <c r="E382"/>
+      <c r="F382"/>
+      <c r="G382"/>
+      <c r="H382" t="s">
+        <v>227</v>
+      </c>
+      <c r="I382"/>
+      <c r="J382"/>
+      <c r="K382"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B383" t="s">
+        <v>11</v>
+      </c>
+      <c r="C383"/>
+      <c r="D383"/>
+      <c r="E383"/>
+      <c r="F383"/>
+      <c r="G383"/>
+      <c r="H383" t="s">
+        <v>211</v>
+      </c>
+      <c r="I383"/>
+      <c r="J383"/>
+      <c r="K383"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B384" t="s">
+        <v>13</v>
+      </c>
+      <c r="C384"/>
+      <c r="D384"/>
+      <c r="E384"/>
+      <c r="F384"/>
+      <c r="G384"/>
+      <c r="H384" t="s">
+        <v>325</v>
+      </c>
+      <c r="I384"/>
+      <c r="J384"/>
+      <c r="K384"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B385" t="s">
+        <v>15</v>
+      </c>
+      <c r="C385"/>
+      <c r="D385"/>
+      <c r="E385"/>
+      <c r="F385"/>
+      <c r="G385"/>
+      <c r="H385" t="s">
+        <v>326</v>
+      </c>
+      <c r="I385"/>
+      <c r="J385"/>
+      <c r="K385"/>
     </row>
   </sheetData>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
